--- a/Excel-Report/TestNG Results.xlsx
+++ b/Excel-Report/TestNG Results.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2304108\eclipse-workspace\Finding_Doctor_Hackthon\Excel-Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74B6F84-F6FB-4CCD-AFD6-C3A9F8224ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FBE77A7-63C9-4CCB-A34B-A83CD412FA7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{23802261-DEAB-4D4B-8C17-AA2DDF613296}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
   <si>
     <t>Exp Result</t>
   </si>
@@ -53,144 +53,11 @@
   <si>
     <t xml:space="preserve">Input Test Data </t>
   </si>
-  <si>
-    <t>TC_003_Form Filling(Test case - 1 )</t>
-  </si>
-  <si>
-    <t>Manojkumar</t>
-  </si>
-  <si>
-    <t>Cognizant</t>
-  </si>
-  <si>
-    <t>9876543210</t>
-  </si>
-  <si>
-    <t>manojkumar@gmail.com</t>
-  </si>
-  <si>
-    <t>&lt;500</t>
-  </si>
-  <si>
-    <t>Taking a demo</t>
-  </si>
-  <si>
-    <t>Valid Data</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>TC_003_Form Filling(Test case - 2 )</t>
-  </si>
-  <si>
-    <t>Saminathan</t>
-  </si>
-  <si>
-    <t>9123041000</t>
-  </si>
-  <si>
-    <t>sami.nathan</t>
-  </si>
-  <si>
-    <t>501-1000</t>
-  </si>
-  <si>
-    <t>Invalid Email</t>
-  </si>
-  <si>
-    <t>TC_003_Form Filling(Test case - 3 )</t>
-  </si>
-  <si>
-    <t>Nivash</t>
-  </si>
-  <si>
-    <t>ni.vash@gmail</t>
-  </si>
-  <si>
-    <t>TC_003_Form Filling(Test case - 4 )</t>
-  </si>
-  <si>
-    <t>Praveen</t>
-  </si>
-  <si>
-    <t>91200</t>
-  </si>
-  <si>
-    <t>mark.shot.com</t>
-  </si>
-  <si>
-    <t>TC_003_Form Filling(Test case - 5 )</t>
-  </si>
-  <si>
-    <t>Velmurugan T</t>
-  </si>
-  <si>
-    <t>TNXT</t>
-  </si>
-  <si>
-    <t>velmurugant@gmail.com</t>
-  </si>
-  <si>
-    <t>TC_003_Form Filling(Test case - 6 )</t>
-  </si>
-  <si>
-    <t>Samidurai</t>
-  </si>
-  <si>
-    <t>25000</t>
-  </si>
-  <si>
-    <t>samidurai@gmail.com</t>
-  </si>
-  <si>
-    <t>Invalid Phone Number</t>
-  </si>
-  <si>
-    <t>TC_003_Form Filling(Test case - 7 )</t>
-  </si>
-  <si>
-    <t>Praveenkumar</t>
-  </si>
-  <si>
-    <t>9000050000</t>
-  </si>
-  <si>
-    <t>praveenkumar@outlook.com</t>
-  </si>
-  <si>
-    <t>TC_003_Form Filling(Test case - 8 )</t>
-  </si>
-  <si>
-    <t>75000</t>
-  </si>
-  <si>
-    <t>TC_003_Form Filling(Test case - 9 )</t>
-  </si>
-  <si>
-    <t>9100000060</t>
-  </si>
-  <si>
-    <t>saminathan@gamail.com</t>
-  </si>
-  <si>
-    <t>TC_003_Form Filling(Test case - 10 )</t>
-  </si>
-  <si>
-    <t>+04125000</t>
-  </si>
-  <si>
-    <t>ni.vash@gmail.com</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -681,16 +548,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="32.81640625"/>
-    <col min="2" max="2" customWidth="true" width="14.81640625"/>
-    <col min="3" max="3" customWidth="true" width="13.81640625"/>
-    <col min="4" max="4" customWidth="true" width="20.81640625"/>
-    <col min="5" max="5" customWidth="true" width="18.90625"/>
-    <col min="6" max="6" customWidth="true" width="15.453125"/>
-    <col min="7" max="7" customWidth="true" width="19.90625"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="37.26953125"/>
-    <col min="9" max="10" customWidth="true" style="5" width="22.08984375"/>
-    <col min="11" max="11" customWidth="true" style="1" width="22.08984375"/>
+    <col min="1" max="1" width="32.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.81640625" customWidth="1"/>
+    <col min="3" max="3" width="13.81640625" customWidth="1"/>
+    <col min="4" max="4" width="20.81640625" customWidth="1"/>
+    <col min="5" max="5" width="18.90625" customWidth="1"/>
+    <col min="6" max="6" width="15.453125" customWidth="1"/>
+    <col min="7" max="7" width="19.90625" customWidth="1"/>
+    <col min="8" max="8" width="37.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="22.08984375" style="5" customWidth="1"/>
+    <col min="11" max="11" width="22.08984375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -804,19 +671,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53318EA8-D380-4A84-AF4A-1EBBFEF60D73}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J2" sqref="B2:J2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.0"/>
-    <col min="2" max="4" customWidth="true" width="14.26953125"/>
-    <col min="5" max="5" customWidth="true" width="22.453125"/>
-    <col min="6" max="8" customWidth="true" width="14.26953125"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="11.6328125"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.1796875"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="12.453125"/>
+    <col min="1" max="1" width="35" customWidth="1"/>
+    <col min="2" max="4" width="14.26953125" customWidth="1"/>
+    <col min="5" max="5" width="22.453125" customWidth="1"/>
+    <col min="6" max="7" width="14.26953125" customWidth="1"/>
+    <col min="8" max="8" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -843,340 +711,60 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="I2" s="0"/>
-      <c r="J2" t="s" s="0">
-        <v>14</v>
-      </c>
       <c r="K2" s="3" t="str">
         <f>IF(I2=J2,"Test case Pass","Test Case Fail")</f>
         <v>Test case Pass</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="H3" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="I3" s="0"/>
-      <c r="J3" t="s" s="0">
-        <v>14</v>
-      </c>
       <c r="K3" s="3" t="str">
         <f t="shared" ref="K3:K34" si="0">IF(I3=J3,"Test case Pass","Test Case Fail")</f>
         <v>Test case Pass</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="G4" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="H4" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="I4" s="0"/>
-      <c r="J4" t="s" s="0">
-        <v>14</v>
-      </c>
       <c r="K4" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Test case Pass</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="F5" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="G5" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="H5" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="I5" s="0"/>
-      <c r="J5" t="s" s="0">
-        <v>14</v>
-      </c>
       <c r="K5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Test case Pass</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="E6" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="F6" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="H6" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="I6" s="0"/>
-      <c r="J6" t="s" s="0">
-        <v>14</v>
-      </c>
       <c r="K6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Test case Pass</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="E7" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="F7" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="G7" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="H7" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="I7" s="0"/>
-      <c r="J7" t="s" s="0">
-        <v>14</v>
-      </c>
       <c r="K7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Test case Pass</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="E8" t="s" s="0">
-        <v>40</v>
-      </c>
-      <c r="F8" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="G8" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="H8" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="I8" s="0"/>
-      <c r="J8" t="s" s="0">
-        <v>14</v>
-      </c>
       <c r="K8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Test case Pass</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s" s="0">
-        <v>41</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s" s="0">
-        <v>42</v>
-      </c>
-      <c r="E9" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="F9" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="G9" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="H9" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="I9" s="0"/>
-      <c r="J9" t="s" s="0">
-        <v>14</v>
-      </c>
       <c r="K9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Test case Pass</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="B10" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="C10" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s" s="0">
-        <v>44</v>
-      </c>
-      <c r="E10" t="s" s="0">
-        <v>45</v>
-      </c>
-      <c r="F10" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="G10" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="H10" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="I10" s="0"/>
-      <c r="J10" t="s" s="0">
-        <v>14</v>
-      </c>
       <c r="K10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Test case Pass</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" t="s" s="0">
-        <v>46</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" t="s">
-        <v>36</v>
-      </c>
-      <c r="I11"/>
-      <c r="J11" t="s">
-        <v>14</v>
-      </c>
       <c r="K11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Test case Pass</v>

--- a/Excel-Report/TestNG Results.xlsx
+++ b/Excel-Report/TestNG Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2304108\eclipse-workspace\Finding_Doctor_Hackthon\Excel-Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FBE77A7-63C9-4CCB-A34B-A83CD412FA7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{862A886E-49E6-4E6C-8C08-AFB68ED473BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{23802261-DEAB-4D4B-8C17-AA2DDF613296}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="85">
   <si>
     <t>Exp Result</t>
   </si>
@@ -52,6 +52,246 @@
   </si>
   <si>
     <t xml:space="preserve">Input Test Data </t>
+  </si>
+  <si>
+    <t>TC_003_Form Filling(Test case - 1 )</t>
+  </si>
+  <si>
+    <t>Manojkumar</t>
+  </si>
+  <si>
+    <t>Cognizant</t>
+  </si>
+  <si>
+    <t>9876543210</t>
+  </si>
+  <si>
+    <t>manojkumar@gmail.com</t>
+  </si>
+  <si>
+    <t>&lt;500</t>
+  </si>
+  <si>
+    <t>Taking a demo</t>
+  </si>
+  <si>
+    <t>Valid Data</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>TC_003_Form Filling(Test case - 2 )</t>
+  </si>
+  <si>
+    <t>Saminathan</t>
+  </si>
+  <si>
+    <t>9123041000</t>
+  </si>
+  <si>
+    <t>sami.nathan</t>
+  </si>
+  <si>
+    <t>501-1000</t>
+  </si>
+  <si>
+    <t>Invalid Email</t>
+  </si>
+  <si>
+    <t>TC_003_Form Filling(Test case - 3 )</t>
+  </si>
+  <si>
+    <t>Nivash</t>
+  </si>
+  <si>
+    <t>ni.vash@gmail</t>
+  </si>
+  <si>
+    <t>TC_003_Form Filling(Test case - 4 )</t>
+  </si>
+  <si>
+    <t>Praveen</t>
+  </si>
+  <si>
+    <t>91200</t>
+  </si>
+  <si>
+    <t>mark.shot.com</t>
+  </si>
+  <si>
+    <t>TC_003_Form Filling(Test case - 5 )</t>
+  </si>
+  <si>
+    <t>Velmurugan T</t>
+  </si>
+  <si>
+    <t>TNXT</t>
+  </si>
+  <si>
+    <t>velmurugant@gmail.com</t>
+  </si>
+  <si>
+    <t>TC_003_Form Filling(Test case - 6 )</t>
+  </si>
+  <si>
+    <t>Samidurai</t>
+  </si>
+  <si>
+    <t>25000</t>
+  </si>
+  <si>
+    <t>samidurai@gmail.com</t>
+  </si>
+  <si>
+    <t>Invalid Phone Number</t>
+  </si>
+  <si>
+    <t>TC_003_Form Filling(Test case - 7 )</t>
+  </si>
+  <si>
+    <t>Praveenkumar</t>
+  </si>
+  <si>
+    <t>9000050000</t>
+  </si>
+  <si>
+    <t>praveenkumar@outlook.com</t>
+  </si>
+  <si>
+    <t>TC_001_Finding Doctor(Test case - 1 )</t>
+  </si>
+  <si>
+    <t>Bangalore</t>
+  </si>
+  <si>
+    <t>Dentist</t>
+  </si>
+  <si>
+    <t>10+ Patient Stories</t>
+  </si>
+  <si>
+    <t>10+ Years of experience</t>
+  </si>
+  <si>
+    <t>Above ₹500</t>
+  </si>
+  <si>
+    <t>Available Tomorrow</t>
+  </si>
+  <si>
+    <t>Consultation Fee - Low to High</t>
+  </si>
+  <si>
+    <t>TC_001_Finding Doctor(Test case - 2 )</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>Eye Specialist</t>
+  </si>
+  <si>
+    <t>5+ Years of experience</t>
+  </si>
+  <si>
+    <t>Above ₹1000</t>
+  </si>
+  <si>
+    <t>Available in next 7 days</t>
+  </si>
+  <si>
+    <t>Experience - High to Low</t>
+  </si>
+  <si>
+    <t>TC_001_Finding Doctor(Test case - 3 )</t>
+  </si>
+  <si>
+    <t>40+ Patient Stories</t>
+  </si>
+  <si>
+    <t>15+ Years of experience</t>
+  </si>
+  <si>
+    <t>Above ₹2000</t>
+  </si>
+  <si>
+    <t>Available Today</t>
+  </si>
+  <si>
+    <t>TC_001_Finding Doctor(Test case - 4 )</t>
+  </si>
+  <si>
+    <t>Anna Nagar</t>
+  </si>
+  <si>
+    <t>Eye Checkup - General</t>
+  </si>
+  <si>
+    <t>40+ Years  of experience</t>
+  </si>
+  <si>
+    <t>Number of patient stories - High to low</t>
+  </si>
+  <si>
+    <t>TC_001_Finding Doctor(Test case - 5 )</t>
+  </si>
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>General Physician</t>
+  </si>
+  <si>
+    <t>20+ Patient Stories</t>
+  </si>
+  <si>
+    <t>5+ Years  of experience</t>
+  </si>
+  <si>
+    <t>Experience-High to low</t>
+  </si>
+  <si>
+    <t>TC_001_Finding Doctor(Test case - 6 )</t>
+  </si>
+  <si>
+    <t>Coimbatore</t>
+  </si>
+  <si>
+    <t>Above ₹5000</t>
+  </si>
+  <si>
+    <t>TC_001_Finding Doctor(Test case - 7 )</t>
+  </si>
+  <si>
+    <t>General Surgeon</t>
+  </si>
+  <si>
+    <t>TC_001_Finding Doctor(Test case - 8 )</t>
+  </si>
+  <si>
+    <t>110+ Patient Stories</t>
+  </si>
+  <si>
+    <t>TC_001_Finding Doctor(Test case - 9 )</t>
+  </si>
+  <si>
+    <t>Thiruvananthapuram</t>
+  </si>
+  <si>
+    <t>Doctor</t>
+  </si>
+  <si>
+    <t>30+ Patient Stories</t>
+  </si>
+  <si>
+    <t>TC_001_Finding Doctor(Test case - 10 )</t>
+  </si>
+  <si>
+    <t>20+ Years of experience</t>
   </si>
 </sst>
 </file>
@@ -543,7 +783,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -584,60 +824,360 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="K2" s="3" t="str">
         <f>IF(I2=J2,"Test case Pass","Test Case Fail")</f>
         <v>Test case Pass</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="K3" s="3" t="str">
         <f t="shared" ref="K3:K5" si="0">IF(I3=J3,"Test case Pass","Test Case Fail")</f>
         <v>Test case Pass</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="K4" s="3" t="str">
         <f>IF(I4=J4,"Test case Pass","Test Case Fail")</f>
         <v>Test case Pass</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="K5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>Test case Pass</v>
+        <v>Test Case Fail</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="K6" s="3" t="str">
         <f t="shared" ref="K6:K11" si="1">IF(I6=J6,"Test case Pass","Test Case Fail")</f>
         <v>Test case Pass</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="K7" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Test case Pass</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="K8" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Test case Pass</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="K9" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Test case Pass</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="K10" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Test case Pass</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="K11" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Test case Pass</v>
@@ -671,14 +1211,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53318EA8-D380-4A84-AF4A-1EBBFEF60D73}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J11"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="4" width="14.26953125" customWidth="1"/>
+    <col min="2" max="3" width="14.26953125" customWidth="1"/>
+    <col min="4" max="4" width="14.26953125" style="5" customWidth="1"/>
     <col min="5" max="5" width="22.453125" customWidth="1"/>
     <col min="6" max="7" width="14.26953125" customWidth="1"/>
     <col min="8" max="8" width="19.54296875" bestFit="1" customWidth="1"/>
@@ -711,45 +1252,255 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
       <c r="K2" s="3" t="str">
         <f>IF(I2=J2,"Test case Pass","Test Case Fail")</f>
         <v>Test case Pass</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" t="s">
+        <v>13</v>
+      </c>
       <c r="K3" s="3" t="str">
         <f t="shared" ref="K3:K34" si="0">IF(I3=J3,"Test case Pass","Test Case Fail")</f>
         <v>Test case Pass</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" t="s">
+        <v>13</v>
+      </c>
       <c r="K4" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Test case Pass</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" t="s">
+        <v>13</v>
+      </c>
       <c r="K5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Test case Pass</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" t="s">
+        <v>13</v>
+      </c>
       <c r="K6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Test case Pass</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" t="s">
+        <v>13</v>
+      </c>
       <c r="K7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Test case Pass</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" t="s">
+        <v>14</v>
+      </c>
       <c r="K8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>Test case Pass</v>
+        <v>Test Case Fail</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">

--- a/Excel-Report/TestNG Results.xlsx
+++ b/Excel-Report/TestNG Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2304108\eclipse-workspace\Finding_Doctor_Hackthon\Excel-Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{862A886E-49E6-4E6C-8C08-AFB68ED473BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{969E0BD3-4ED4-4411-B85C-3D18DDA465D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{23802261-DEAB-4D4B-8C17-AA2DDF613296}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{23802261-DEAB-4D4B-8C17-AA2DDF613296}"/>
   </bookViews>
   <sheets>
     <sheet name="Finding Doctor result (TestNG)" sheetId="1" r:id="rId1"/>
@@ -780,10 +780,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE7AE154-5CD7-452C-B2D0-4A410A636F1A}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -795,12 +795,12 @@
     <col min="5" max="5" width="18.90625" customWidth="1"/>
     <col min="6" max="6" width="15.453125" customWidth="1"/>
     <col min="7" max="7" width="19.90625" customWidth="1"/>
-    <col min="8" max="8" width="37.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="22.08984375" style="5" customWidth="1"/>
-    <col min="11" max="11" width="22.08984375" style="1" customWidth="1"/>
+    <col min="8" max="9" width="37.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="22.08984375" style="5" customWidth="1"/>
+    <col min="12" max="12" width="22.08984375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -812,18 +812,19 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="4" t="s">
+      <c r="H1" s="7"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -848,18 +849,18 @@
       <c r="H2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="J2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="3" t="str">
-        <f>IF(I2=J2,"Test case Pass","Test Case Fail")</f>
-        <v>Test case Pass</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="3" t="str">
+        <f>IF(J2=K2,"Test case Pass","Test Case Fail")</f>
+        <v>Test case Pass</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>49</v>
       </c>
@@ -884,18 +885,18 @@
       <c r="H3" t="s">
         <v>55</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="J3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="3" t="str">
-        <f t="shared" ref="K3:K5" si="0">IF(I3=J3,"Test case Pass","Test Case Fail")</f>
-        <v>Test case Pass</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="3" t="str">
+        <f t="shared" ref="L3:L5" si="0">IF(J3=K3,"Test case Pass","Test Case Fail")</f>
+        <v>Test case Pass</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -920,18 +921,18 @@
       <c r="H4" t="s">
         <v>55</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="J4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="3" t="str">
-        <f>IF(I4=J4,"Test case Pass","Test Case Fail")</f>
-        <v>Test case Pass</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="3" t="str">
+        <f>IF(J4=K4,"Test case Pass","Test Case Fail")</f>
+        <v>Test case Pass</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>61</v>
       </c>
@@ -956,18 +957,18 @@
       <c r="H5" t="s">
         <v>65</v>
       </c>
-      <c r="I5" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="J5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="3" t="str">
+      <c r="L5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Test Case Fail</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>66</v>
       </c>
@@ -992,18 +993,18 @@
       <c r="H6" t="s">
         <v>71</v>
       </c>
-      <c r="I6" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="J6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="3" t="str">
-        <f t="shared" ref="K6:K11" si="1">IF(I6=J6,"Test case Pass","Test Case Fail")</f>
-        <v>Test case Pass</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="3" t="str">
+        <f t="shared" ref="L6:L11" si="1">IF(J6=K6,"Test case Pass","Test Case Fail")</f>
+        <v>Test case Pass</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>72</v>
       </c>
@@ -1028,18 +1029,18 @@
       <c r="H7" t="s">
         <v>55</v>
       </c>
-      <c r="I7" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="J7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="3" t="str">
+      <c r="K7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Test case Pass</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>75</v>
       </c>
@@ -1064,18 +1065,18 @@
       <c r="H8" t="s">
         <v>71</v>
       </c>
-      <c r="I8" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="J8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="3" t="str">
+      <c r="K8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Test case Pass</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>77</v>
       </c>
@@ -1100,18 +1101,18 @@
       <c r="H9" t="s">
         <v>55</v>
       </c>
-      <c r="I9" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="J9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="3" t="str">
+      <c r="K9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Test case Pass</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>79</v>
       </c>
@@ -1136,18 +1137,18 @@
       <c r="H10" t="s">
         <v>48</v>
       </c>
-      <c r="I10" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="J10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K10" s="3" t="str">
+      <c r="K10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Test case Pass</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>83</v>
       </c>
@@ -1172,35 +1173,35 @@
       <c r="H11" t="s">
         <v>55</v>
       </c>
-      <c r="I11" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="J11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K11" s="3" t="str">
+      <c r="K11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Test case Pass</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="29.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="1:11" ht="29.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:11" ht="29.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:11" ht="29.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:11" ht="29.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:12" ht="29.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:12" ht="29.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:12" ht="29.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:12" ht="29.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:12" ht="29.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="17" ht="29.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="18" ht="29.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="19" ht="29.5" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B1:I1"/>
   </mergeCells>
-  <conditionalFormatting sqref="K2:K11">
+  <conditionalFormatting sqref="L2:L11">
     <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",K2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Pass",L2)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",K2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",L2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1211,8 +1212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53318EA8-D380-4A84-AF4A-1EBBFEF60D73}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Excel-Report/TestNG Results.xlsx
+++ b/Excel-Report/TestNG Results.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2304108\eclipse-workspace\Finding_Doctor_Hackthon\Excel-Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71DC0188-F60D-4A1F-8E2F-A7897E79C46A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F742D466-A124-469B-90BE-E7CEC6451F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{59D175B6-3E15-4B69-A011-BF4C447A170A}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="94">
   <si>
     <t>Test case</t>
   </si>
@@ -84,60 +84,63 @@
     <t>Pass</t>
   </si>
   <si>
+    <t>Test Case Pass</t>
+  </si>
+  <si>
+    <t>TC_001_Finding Doctor(Test case - 2 )</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>Eye Specialist</t>
+  </si>
+  <si>
+    <t>20+ Patient Stories</t>
+  </si>
+  <si>
+    <t>5+ Years of experience</t>
+  </si>
+  <si>
+    <t>Above ₹1000</t>
+  </si>
+  <si>
+    <t>Available in next 7 days</t>
+  </si>
+  <si>
+    <t>Experience - High to Low</t>
+  </si>
+  <si>
+    <t>TC_001_Finding Doctor(Test case - 3 )</t>
+  </si>
+  <si>
+    <t>40+ Patient Stories</t>
+  </si>
+  <si>
+    <t>15+ Years of experience</t>
+  </si>
+  <si>
+    <t>Above ₹2000</t>
+  </si>
+  <si>
+    <t>Available Today</t>
+  </si>
+  <si>
+    <t>Invalid Stories</t>
+  </si>
+  <si>
     <t>Fail</t>
   </si>
   <si>
-    <t>TC_001_Finding Doctor(Test case - 2 )</t>
-  </si>
-  <si>
-    <t>Delhi</t>
-  </si>
-  <si>
-    <t>Eye Specialist</t>
-  </si>
-  <si>
-    <t>20+ Patient Stories</t>
-  </si>
-  <si>
-    <t>5+ Years of experience</t>
-  </si>
-  <si>
-    <t>Above ₹1000</t>
-  </si>
-  <si>
-    <t>Available in next 7 days</t>
-  </si>
-  <si>
-    <t>Experience - High to Low</t>
-  </si>
-  <si>
-    <t>TC_001_Finding Doctor(Test case - 3 )</t>
-  </si>
-  <si>
-    <t>40+ Patient Stories</t>
-  </si>
-  <si>
-    <t>15+ Years of experience</t>
-  </si>
-  <si>
-    <t>Above ₹2000</t>
-  </si>
-  <si>
-    <t>Available Today</t>
-  </si>
-  <si>
-    <t>Invalid Stories</t>
-  </si>
-  <si>
     <t>TC_001_Finding Doctor(Test case - 4 )</t>
   </si>
   <si>
-    <t>Anna Nagar</t>
-  </si>
-  <si>
     <t>Eye Checkup - General</t>
   </si>
   <si>
+    <t>30+ Patient Stories</t>
+  </si>
+  <si>
     <t>40+ Years  of experience</t>
   </si>
   <si>
@@ -150,21 +153,18 @@
     <t>TC_001_Finding Doctor(Test case - 5 )</t>
   </si>
   <si>
-    <t>Chennai</t>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>Ayurveda</t>
+  </si>
+  <si>
+    <t>TC_001_Finding Doctor(Test case - 6 )</t>
   </si>
   <si>
     <t>5+ Years  of experience</t>
   </si>
   <si>
-    <t>Experience-High to low</t>
-  </si>
-  <si>
-    <t>TC_001_Finding Doctor(Test case - 6 )</t>
-  </si>
-  <si>
-    <t>Coimbatore</t>
-  </si>
-  <si>
     <t>Above ₹5000</t>
   </si>
   <si>
@@ -180,21 +180,12 @@
     <t>TC_001_Finding Doctor(Test case - 8 )</t>
   </si>
   <si>
-    <t>110+ Patient Stories</t>
-  </si>
-  <si>
     <t>TC_001_Finding Doctor(Test case - 9 )</t>
   </si>
   <si>
-    <t>Thiruvananthapuram</t>
-  </si>
-  <si>
     <t>Doctor</t>
   </si>
   <si>
-    <t>30+ Patient Stories</t>
-  </si>
-  <si>
     <t>TC_001_Finding Doctor(Test case - 10 )</t>
   </si>
   <si>
@@ -325,12 +316,16 @@
   </si>
   <si>
     <t>ni.vash@gmail.com</t>
+  </si>
+  <si>
+    <t>Test Case Fail</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -347,7 +342,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -370,6 +365,26 @@
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="darkGrid">
+        <bgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="darkGrid">
+        <bgColor indexed="10"/>
       </patternFill>
     </fill>
   </fills>
@@ -437,16 +452,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -461,7 +473,13 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -479,6 +497,15 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -848,447 +875,438 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2BD9AD8-50C5-41E2-B6D4-DB846CC8BD0D}">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.08984375" customWidth="1"/>
-    <col min="5" max="5" width="23.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.08984375" style="3" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="36.0"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.26953125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="30.1796875"/>
+    <col min="4" max="4" customWidth="true" width="19.08984375"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.26953125"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.0"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="22.90625"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="37.26953125"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="17.90625"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="12.1796875"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="11.6328125"/>
+    <col min="12" max="12" customWidth="true" style="3" width="22.08984375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="8" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="M1" s="9"/>
+    </row>
+    <row r="2" spans="1:13" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="J2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="2" t="s">
+      <c r="J2" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="L2" t="s" s="3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="J3" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="K3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="L3" t="s" s="3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="I4" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="J4" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="K4" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="L4" t="s" s="3">
         <v>15</v>
       </c>
-      <c r="L2" s="4" t="str">
-        <f>IF(J2=K2,"Test case Pass","Test Case Fail")</f>
-        <v>Test case Pass</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="5" spans="1:13" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="C5" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="I5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="J5" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="K5" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="L5" t="s" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F6" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H6" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="I6" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="J6" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="L6" t="s" s="3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="H7" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="I7" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="J7" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="L7" t="s" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="G8" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="H8" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="I8" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="J8" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="K8" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="L8" t="s" s="3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="H9" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I9" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="J3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" s="4" t="str">
-        <f t="shared" ref="L3:L11" si="0">IF(J3=K3,"Test case Pass","Test Case Fail")</f>
-        <v>Test case Pass</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="J9" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="H10" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="I10" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="J10" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="B11" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C11" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="D11" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="E11" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="F11" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="G4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="G11" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="H11" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="I4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="I11" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="J11" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Test case Pass</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Test case Pass</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Test case Pass</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Test case Pass</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L8" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Test case Pass</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" t="s">
-        <v>14</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L9" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Test case Pass</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" t="s">
-        <v>14</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L10" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Test case Pass</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L11" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Test case Pass</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="29.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="1:12" ht="29.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:12" ht="29.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:12" ht="29.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:12" ht="29.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    </row>
+    <row r="12" spans="1:13" ht="29.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:13" ht="29.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:13" ht="29.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:13" ht="29.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:13" ht="29.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="17" ht="29.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="18" ht="29.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="19" ht="29.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1313,413 +1331,404 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD3711E-76E2-4CF2-AEF3-DD22A2904A6C}">
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="3" width="14.26953125" customWidth="1"/>
-    <col min="4" max="4" width="14.26953125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="22.453125" customWidth="1"/>
-    <col min="6" max="7" width="14.26953125" customWidth="1"/>
-    <col min="8" max="8" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="35.0"/>
+    <col min="2" max="3" customWidth="true" width="14.26953125"/>
+    <col min="4" max="4" customWidth="true" style="2" width="14.26953125"/>
+    <col min="5" max="5" customWidth="true" width="22.453125"/>
+    <col min="6" max="7" customWidth="true" width="14.26953125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="19.54296875"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.6328125"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.1796875"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="12.453125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="6" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="L1" s="9"/>
+    </row>
+    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="G2" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="J2" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s" s="0">
         <v>59</v>
       </c>
-      <c r="G2" t="s">
+      <c r="B3" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="H2" t="s">
+      <c r="C3" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="4" t="str">
-        <f>IF(I2=J2,"Test case Pass","Test Case Fail")</f>
-        <v>Test case Pass</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="E3" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="B3" t="s">
+      <c r="F3" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="C3" t="s">
+      <c r="G3" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="I3" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="J3" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="K3" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="F4" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="G4" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="H4" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="E3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="I4" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="J4" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="K4" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="I5" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="J5" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="K5" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="H6" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="I6" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="J6" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="K6" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="H7" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="I7" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="J7" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="K7" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="H8" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="I8" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="J8" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="K8" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="H9" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="I9" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="J9" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="K9" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="H10" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="I10" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="J10" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="K10" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B11" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="G3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H3" t="s">
-        <v>67</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="4" t="str">
-        <f t="shared" ref="K3:K11" si="0">IF(I3=J3,"Test case Pass","Test Case Fail")</f>
-        <v>Test case Pass</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="C11" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="F11" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="4" t="str">
-        <f>IF(I4=J4,"Test case Pass","Test Case Fail")</f>
-        <v>Test case Pass</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G5" t="s">
-        <v>60</v>
-      </c>
-      <c r="H5" t="s">
-        <v>67</v>
-      </c>
-      <c r="I5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Test case Pass</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G6" t="s">
-        <v>60</v>
-      </c>
-      <c r="H6" t="s">
-        <v>67</v>
-      </c>
-      <c r="I6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="4" t="str">
-        <f>IF(I6=J6,"Test case Pass","Test Case Fail")</f>
-        <v>Test case Pass</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="G11" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="H11" t="s" s="0">
         <v>80</v>
       </c>
-      <c r="C7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H7" t="s">
-        <v>83</v>
-      </c>
-      <c r="I7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Test case Pass</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E8" t="s">
-        <v>87</v>
-      </c>
-      <c r="F8" t="s">
-        <v>59</v>
-      </c>
-      <c r="G8" t="s">
-        <v>60</v>
-      </c>
-      <c r="H8" t="s">
-        <v>83</v>
-      </c>
-      <c r="I8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Test case Pass</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>88</v>
-      </c>
-      <c r="B9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" t="s">
-        <v>66</v>
-      </c>
-      <c r="G9" t="s">
-        <v>60</v>
-      </c>
-      <c r="H9" t="s">
-        <v>83</v>
-      </c>
-      <c r="I9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" t="s">
-        <v>14</v>
-      </c>
-      <c r="K9" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Test case Pass</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E10" t="s">
-        <v>92</v>
-      </c>
-      <c r="F10" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" t="s">
-        <v>60</v>
-      </c>
-      <c r="H10" t="s">
-        <v>83</v>
-      </c>
-      <c r="I10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" t="s">
-        <v>14</v>
-      </c>
-      <c r="K10" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Test case Pass</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>93</v>
-      </c>
-      <c r="B11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" t="s">
-        <v>94</v>
-      </c>
-      <c r="E11" t="s">
-        <v>95</v>
-      </c>
-      <c r="F11" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" t="s">
-        <v>60</v>
-      </c>
-      <c r="H11" t="s">
-        <v>83</v>
-      </c>
-      <c r="I11" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Test case Pass</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35"/>
+      <c r="I11" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="J11" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="K11" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="17" ht="21" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="18" ht="21" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="19" ht="21" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/Excel-Report/TestNG Results.xlsx
+++ b/Excel-Report/TestNG Results.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="95">
   <si>
     <t>Test case</t>
   </si>
@@ -319,6 +319,9 @@
   </si>
   <si>
     <t>Test Case Fail</t>
+  </si>
+  <si>
+    <t>Kolkata</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -506,6 +509,83 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1041,13 +1121,13 @@
         <v>31</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s" s="0">
         <v>34</v>
@@ -1117,13 +1197,13 @@
         <v>40</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>7</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s" s="0">
         <v>41</v>
@@ -1219,10 +1299,10 @@
       <c r="J9" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="L9" t="s" s="3">
         <v>15</v>
       </c>
     </row>
@@ -1257,11 +1337,11 @@
       <c r="J10" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="K10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>15</v>
+      <c r="K10" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="L10" t="s" s="3">
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1295,10 +1375,10 @@
       <c r="J11" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="L11" t="s" s="3">
         <v>15</v>
       </c>
     </row>
@@ -1384,7 +1464,7 @@
       <c r="C2" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s" s="2">
         <v>54</v>
       </c>
       <c r="E2" t="s" s="0">
@@ -1399,14 +1479,12 @@
       <c r="H2" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="I2" t="s" s="0">
-        <v>14</v>
-      </c>
+      <c r="I2" s="0"/>
       <c r="J2" t="s" s="0">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>15</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
@@ -1419,7 +1497,7 @@
       <c r="C3" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s" s="2">
         <v>61</v>
       </c>
       <c r="E3" t="s" s="0">
@@ -1434,14 +1512,12 @@
       <c r="H3" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="I3" t="s" s="0">
-        <v>14</v>
-      </c>
+      <c r="I3" s="0"/>
       <c r="J3" t="s" s="0">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K3" t="s" s="0">
-        <v>15</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
@@ -1454,7 +1530,7 @@
       <c r="C4" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" t="s" s="2">
         <v>61</v>
       </c>
       <c r="E4" t="s" s="0">
@@ -1469,14 +1545,12 @@
       <c r="H4" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="I4" t="s" s="0">
-        <v>14</v>
-      </c>
+      <c r="I4" s="0"/>
       <c r="J4" t="s" s="0">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K4" t="s" s="0">
-        <v>15</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
@@ -1489,7 +1563,7 @@
       <c r="C5" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" t="s" s="2">
         <v>70</v>
       </c>
       <c r="E5" t="s" s="0">
@@ -1504,14 +1578,12 @@
       <c r="H5" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="I5" t="s" s="0">
-        <v>14</v>
-      </c>
+      <c r="I5" s="0"/>
       <c r="J5" t="s" s="0">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K5" t="s" s="0">
-        <v>15</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
@@ -1524,7 +1596,7 @@
       <c r="C6" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" t="s" s="2">
         <v>61</v>
       </c>
       <c r="E6" t="s" s="0">
@@ -1539,14 +1611,12 @@
       <c r="H6" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="I6" t="s" s="0">
-        <v>14</v>
-      </c>
+      <c r="I6" s="0"/>
       <c r="J6" t="s" s="0">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" t="s" s="0">
-        <v>15</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
@@ -1559,7 +1629,7 @@
       <c r="C7" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E7" t="s" s="0">
@@ -1574,14 +1644,12 @@
       <c r="H7" t="s" s="0">
         <v>80</v>
       </c>
-      <c r="I7" t="s" s="0">
-        <v>14</v>
-      </c>
+      <c r="I7" s="0"/>
       <c r="J7" t="s" s="0">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K7" t="s" s="0">
-        <v>15</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
@@ -1594,7 +1662,7 @@
       <c r="C8" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" t="s" s="2">
         <v>83</v>
       </c>
       <c r="E8" t="s" s="0">
@@ -1609,14 +1677,12 @@
       <c r="H8" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="I8" t="s" s="0">
-        <v>14</v>
-      </c>
+      <c r="I8" s="0"/>
       <c r="J8" t="s" s="0">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K8" t="s" s="0">
-        <v>15</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
@@ -1629,7 +1695,7 @@
       <c r="C9" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" t="s" s="2">
         <v>86</v>
       </c>
       <c r="E9" t="s" s="0">
@@ -1644,14 +1710,12 @@
       <c r="H9" t="s" s="0">
         <v>80</v>
       </c>
-      <c r="I9" t="s" s="0">
-        <v>14</v>
-      </c>
+      <c r="I9" s="0"/>
       <c r="J9" t="s" s="0">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K9" t="s" s="0">
-        <v>15</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
@@ -1664,7 +1728,7 @@
       <c r="C10" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" t="s" s="2">
         <v>88</v>
       </c>
       <c r="E10" t="s" s="0">
@@ -1679,14 +1743,12 @@
       <c r="H10" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="I10" t="s" s="0">
-        <v>14</v>
-      </c>
+      <c r="I10" s="0"/>
       <c r="J10" t="s" s="0">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K10" t="s" s="0">
-        <v>15</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
@@ -1699,7 +1761,7 @@
       <c r="C11" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" t="s" s="2">
         <v>91</v>
       </c>
       <c r="E11" t="s" s="0">
@@ -1714,14 +1776,12 @@
       <c r="H11" t="s" s="0">
         <v>80</v>
       </c>
-      <c r="I11" t="s" s="0">
-        <v>14</v>
-      </c>
+      <c r="I11" s="0"/>
       <c r="J11" t="s" s="0">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K11" t="s" s="0">
-        <v>15</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35"/>
